--- a/data/hotels_by_city/Miami/Miami_shard_474.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_474.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,559 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r561505660-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>34153</t>
+  </si>
+  <si>
+    <t>240081</t>
+  </si>
+  <si>
+    <t>561505660</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r556927455-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>556927455</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r548460589-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>548460589</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r547738255-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>547738255</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r492708282-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>492708282</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r492261123-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>492261123</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r491939904-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>491939904</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r472461356-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>472461356</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r454877515-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>454877515</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r420006064-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>420006064</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r379960134-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>379960134</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r374898988-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>374898988</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r364480664-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>364480664</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r340773572-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>340773572</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r319167120-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>319167120</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r301906684-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>301906684</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r293467872-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>293467872</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r283801892-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>283801892</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r280984364-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>280984364</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r276512018-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>276512018</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r273084473-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>273084473</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r266566052-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>266566052</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r266470337-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>266470337</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r262779654-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>262779654</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r262419446-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>262419446</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r255098887-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>255098887</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r254187173-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>254187173</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r253414662-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>253414662</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r251771758-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>251771758</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r249119142-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>249119142</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r244573230-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>244573230</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r237648508-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>237648508</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r204815892-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>204815892</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r195262152-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>195262152</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r194641444-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>194641444</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r188713462-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>188713462</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r187548369-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>187548369</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r166096615-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>166096615</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r161019979-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>161019979</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r139754630-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>139754630</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r127050013-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>127050013</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r119357314-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>119357314</t>
+  </si>
+  <si>
+    <t>10/16/2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r113889598-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>113889598</t>
+  </si>
+  <si>
+    <t>06/16/2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r54046605-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>54046605</t>
+  </si>
+  <si>
+    <t>01/21/2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r48123475-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>48123475</t>
+  </si>
+  <si>
+    <t>10/30/2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r38598431-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>38598431</t>
+  </si>
+  <si>
+    <t>08/23/2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r23979582-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>23979582</t>
+  </si>
+  <si>
+    <t>01/28/2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r13796139-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>13796139</t>
+  </si>
+  <si>
+    <t>02/23/2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r7952441-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>7952441</t>
+  </si>
+  <si>
+    <t>06/19/2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r5180354-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>5180354</t>
+  </si>
+  <si>
+    <t>05/17/2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r5077567-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>5077567</t>
+  </si>
+  <si>
+    <t>05/14/2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34153-d240081-r3484960-Studio_6_Ft_Lauderdale_Coral_Springs-Coral_Springs_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>3484960</t>
+  </si>
+  <si>
+    <t>05/18/2005</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +625,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Fort-Lauderdale-Hotels-Studio-6-Ft-Lauderdale-Coral-Springs.h151032.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,38 +998,2391 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>36274</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>164</v>
+      </c>
+      <c r="J47" t="s">
+        <v>165</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" t="s">
+        <v>177</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
     </row>
   </sheetData>
 </worksheet>
@@ -573,79 +3403,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
